--- a/Team-Data/2011-12/1-12-2011-12.xlsx
+++ b/Team-Data/2011-12/1-12-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,61 +733,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.667</v>
+        <v>0.636</v>
       </c>
       <c r="H2" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="I2" t="n">
-        <v>37.3</v>
+        <v>36.9</v>
       </c>
       <c r="J2" t="n">
-        <v>83.3</v>
+        <v>82.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M2" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.391</v>
+        <v>0.398</v>
       </c>
       <c r="O2" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="P2" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.71</v>
+        <v>0.706</v>
       </c>
       <c r="R2" t="n">
-        <v>11.9</v>
+        <v>11.2</v>
       </c>
       <c r="S2" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="T2" t="n">
-        <v>43.3</v>
+        <v>42.2</v>
       </c>
       <c r="U2" t="n">
-        <v>22.7</v>
+        <v>22.1</v>
       </c>
       <c r="V2" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="W2" t="n">
         <v>8.800000000000001</v>
@@ -732,28 +799,28 @@
         <v>5.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>2</v>
@@ -762,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
@@ -774,52 +841,52 @@
         <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>5</v>
       </c>
-      <c r="AV2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>4</v>
-      </c>
       <c r="BA2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>12</v>
@@ -950,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
         <v>24</v>
@@ -959,10 +1026,10 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ3" t="n">
         <v>17</v>
@@ -977,19 +1044,19 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1001,7 +1068,7 @@
         <v>23</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -1030,85 +1097,85 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.182</v>
+        <v>0.2</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="J4" t="n">
-        <v>85.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.419</v>
       </c>
       <c r="L4" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.32</v>
+        <v>0.329</v>
       </c>
       <c r="O4" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="P4" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
-        <v>11.9</v>
+        <v>12.7</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>32.6</v>
       </c>
       <c r="T4" t="n">
-        <v>43.9</v>
+        <v>45.3</v>
       </c>
       <c r="U4" t="n">
         <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="W4" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="X4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-12.7</v>
+        <v>-11</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>27</v>
@@ -1120,7 +1187,7 @@
         <v>27</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -1129,16 +1196,16 @@
         <v>1</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
       </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>29</v>
@@ -1147,34 +1214,34 @@
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AS4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AT4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
         <v>30</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
         <v>26</v>
@@ -1183,7 +1250,7 @@
         <v>25</v>
       </c>
       <c r="BC4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -1305,46 +1372,46 @@
         <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>10</v>
       </c>
       <c r="AL5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="n">
         <v>17</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>18</v>
       </c>
       <c r="AP5" t="n">
         <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT5" t="n">
         <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW5" t="n">
         <v>20</v>
@@ -1362,7 +1429,7 @@
         <v>27</v>
       </c>
       <c r="BB5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -1394,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="H6" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>35.6</v>
+        <v>35.2</v>
       </c>
       <c r="J6" t="n">
-        <v>81.8</v>
+        <v>81</v>
       </c>
       <c r="K6" t="n">
         <v>0.435</v>
       </c>
       <c r="L6" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="M6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.367</v>
+        <v>0.351</v>
       </c>
       <c r="O6" t="n">
-        <v>17.6</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="S6" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T6" t="n">
-        <v>42.8</v>
+        <v>42.3</v>
       </c>
       <c r="U6" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="V6" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="W6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="AD6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE6" t="n">
         <v>16</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>14</v>
       </c>
       <c r="AG6" t="n">
         <v>16</v>
@@ -1490,64 +1557,64 @@
         <v>18</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
         <v>5</v>
       </c>
       <c r="AM6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
         <v>8</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>11</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AS6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
         <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB6" t="n">
         <v>11</v>
       </c>
-      <c r="AX6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>10</v>
-      </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>-0.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>12</v>
@@ -1693,16 +1760,16 @@
         <v>10</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
         <v>27</v>
       </c>
       <c r="AS7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
@@ -1726,7 +1793,7 @@
         <v>20</v>
       </c>
       <c r="BB7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC7" t="n">
         <v>18</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>6.1</v>
       </c>
       <c r="AD8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE8" t="n">
         <v>5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>7</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>12</v>
@@ -1860,31 +1927,31 @@
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP8" t="n">
         <v>4</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR8" t="n">
         <v>30</v>
       </c>
       <c r="AS8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
@@ -1896,10 +1963,10 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ8" t="n">
         <v>2</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -1940,85 +2007,85 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.182</v>
+        <v>0.2</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="J9" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.419</v>
+        <v>0.416</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.333</v>
       </c>
       <c r="O9" t="n">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="P9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.804</v>
+        <v>0.778</v>
       </c>
       <c r="R9" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S9" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="T9" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="U9" t="n">
         <v>17.9</v>
       </c>
       <c r="V9" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X9" t="n">
         <v>3</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>83.7</v>
+        <v>82.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-11.7</v>
+        <v>-12</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>27</v>
@@ -2039,25 +2106,25 @@
         <v>27</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>25</v>
       </c>
       <c r="AM9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO9" t="n">
         <v>28</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>25</v>
       </c>
       <c r="AP9" t="n">
         <v>28</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AR9" t="n">
         <v>20</v>
@@ -2081,19 +2148,19 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ9" t="n">
         <v>8</v>
       </c>
       <c r="BA9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -2122,118 +2189,118 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>35.8</v>
+        <v>35</v>
       </c>
       <c r="J10" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.447</v>
+        <v>0.438</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="M10" t="n">
-        <v>18.9</v>
+        <v>18.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.344</v>
+        <v>0.331</v>
       </c>
       <c r="O10" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="R10" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>31</v>
+      </c>
+      <c r="T10" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="V10" t="n">
         <v>15.8</v>
       </c>
-      <c r="P10" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.712</v>
-      </c>
-      <c r="R10" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="S10" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="U10" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>15.6</v>
-      </c>
       <c r="W10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="X10" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="Y10" t="n">
         <v>4.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.7</v>
+        <v>23.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.90000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-5.3</v>
+        <v>-5</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG10" t="n">
         <v>21</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>4</v>
       </c>
       <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL10" t="n">
         <v>15</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>12</v>
-      </c>
       <c r="AM10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -2242,41 +2309,41 @@
         <v>24</v>
       </c>
       <c r="AR10" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AS10" t="n">
         <v>15</v>
       </c>
       <c r="AT10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU10" t="n">
         <v>18</v>
       </c>
-      <c r="AU10" t="n">
-        <v>16</v>
-      </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC10" t="n">
         <v>24</v>
       </c>
-      <c r="AY10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>30</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>24</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>17</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>25</v>
-      </c>
       <c r="BD10" t="n">
         <v>10</v>
       </c>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -2382,31 +2449,31 @@
         <v>-4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2421,13 +2488,13 @@
         <v>30</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT11" t="n">
         <v>14</v>
@@ -2448,13 +2515,13 @@
         <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
         <v>30</v>
       </c>
       <c r="BB11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC11" t="n">
         <v>23</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -2564,37 +2631,37 @@
         <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
         <v>25</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
         <v>23</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO12" t="n">
         <v>7</v>
@@ -2606,13 +2673,13 @@
         <v>8</v>
       </c>
       <c r="AR12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
         <v>24</v>
@@ -2627,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ12" t="n">
         <v>25</v>
@@ -2636,7 +2703,7 @@
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="AI13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ13" t="n">
         <v>24</v>
@@ -2770,13 +2837,13 @@
         <v>6</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM13" t="n">
         <v>12</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
@@ -2797,13 +2864,13 @@
         <v>30</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
         <v>2</v>
       </c>
       <c r="AW13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
         <v>13</v>
@@ -2812,13 +2879,13 @@
         <v>1</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>1</v>
       </c>
       <c r="BB13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC13" t="n">
         <v>12</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -2946,28 +3013,28 @@
         <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
         <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>14</v>
       </c>
       <c r="AP14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>9</v>
@@ -2979,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>27</v>
@@ -2991,19 +3058,19 @@
         <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA14" t="n">
         <v>13</v>
       </c>
       <c r="BB14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -3032,103 +3099,103 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>82.8</v>
+        <v>83.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L15" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="M15" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="O15" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="P15" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="R15" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="V15" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="W15" t="n">
         <v>10.4</v>
       </c>
-      <c r="N15" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O15" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.697</v>
-      </c>
-      <c r="R15" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="S15" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="T15" t="n">
-        <v>43</v>
-      </c>
-      <c r="U15" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>10.3</v>
-      </c>
       <c r="X15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>91.3</v>
+        <v>91</v>
       </c>
       <c r="AC15" t="n">
-        <v>-2.6</v>
+        <v>-4.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
         <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3140,43 +3207,43 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP15" t="n">
         <v>21</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>19</v>
       </c>
       <c r="AQ15" t="n">
         <v>27</v>
       </c>
       <c r="AR15" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU15" t="n">
         <v>27</v>
       </c>
       <c r="AV15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3316,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM16" t="n">
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
         <v>2</v>
@@ -3340,7 +3407,7 @@
         <v>3</v>
       </c>
       <c r="AT16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU16" t="n">
         <v>3</v>
@@ -3349,13 +3416,13 @@
         <v>30</v>
       </c>
       <c r="AW16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ16" t="n">
         <v>27</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -3396,94 +3463,94 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.333</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>83.90000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.435</v>
+        <v>0.431</v>
       </c>
       <c r="L17" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="M17" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.333</v>
+        <v>0.311</v>
       </c>
       <c r="O17" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="P17" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.763</v>
+        <v>0.74</v>
       </c>
       <c r="R17" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>27.7</v>
+        <v>28.3</v>
       </c>
       <c r="T17" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="U17" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="V17" t="n">
         <v>14.6</v>
       </c>
       <c r="W17" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.7</v>
+        <v>-1.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>12</v>
@@ -3492,19 +3559,19 @@
         <v>12</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM17" t="n">
         <v>14</v>
       </c>
-      <c r="AM17" t="n">
-        <v>13</v>
-      </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>26</v>
@@ -3513,16 +3580,16 @@
         <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS17" t="n">
         <v>27</v>
       </c>
       <c r="AT17" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -3534,19 +3601,19 @@
         <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA17" t="n">
         <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH18" t="n">
         <v>12</v>
@@ -3677,7 +3744,7 @@
         <v>18</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>4</v>
@@ -3686,25 +3753,25 @@
         <v>4</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
         <v>9</v>
       </c>
       <c r="AP18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ18" t="n">
         <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>11</v>
       </c>
       <c r="AT18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
@@ -3713,7 +3780,7 @@
         <v>29</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-10.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AH19" t="n">
         <v>12</v>
@@ -3856,7 +3923,7 @@
         <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3868,25 +3935,25 @@
         <v>1</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
         <v>16</v>
       </c>
       <c r="AP19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
         <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU19" t="n">
         <v>22</v>
@@ -3898,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY19" t="n">
         <v>27</v>
@@ -3907,7 +3974,7 @@
         <v>23</v>
       </c>
       <c r="BA19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>-4.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
         <v>12</v>
@@ -4041,40 +4108,40 @@
         <v>25</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN20" t="n">
         <v>27</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU20" t="n">
         <v>23</v>
       </c>
       <c r="AV20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW20" t="n">
         <v>23</v>
@@ -4089,7 +4156,7 @@
         <v>16</v>
       </c>
       <c r="BA20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -4124,106 +4191,106 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.545</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="J21" t="n">
-        <v>79.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.418</v>
+        <v>0.422</v>
       </c>
       <c r="L21" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="M21" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.317</v>
+        <v>0.305</v>
       </c>
       <c r="O21" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="P21" t="n">
-        <v>25.7</v>
+        <v>27.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.792</v>
+        <v>0.787</v>
       </c>
       <c r="R21" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S21" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T21" t="n">
         <v>40.9</v>
       </c>
       <c r="U21" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="V21" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z21" t="n">
         <v>22.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>12</v>
       </c>
       <c r="AF21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
         <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
         <v>6</v>
@@ -4232,13 +4299,13 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ21" t="n">
         <v>5</v>
@@ -4247,7 +4314,7 @@
         <v>22</v>
       </c>
       <c r="AS21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT21" t="n">
         <v>21</v>
@@ -4256,28 +4323,28 @@
         <v>25</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
         <v>5</v>
       </c>
       <c r="AX21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4411,7 +4478,7 @@
         <v>9</v>
       </c>
       <c r="AM22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN22" t="n">
         <v>7</v>
@@ -4420,19 +4487,19 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>23</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -4488,94 +4555,94 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.727</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J23" t="n">
-        <v>77.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.462</v>
+        <v>0.458</v>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M23" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.409</v>
+        <v>0.402</v>
       </c>
       <c r="O23" t="n">
-        <v>16.6</v>
+        <v>14.7</v>
       </c>
       <c r="P23" t="n">
-        <v>25.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.651</v>
+        <v>0.65</v>
       </c>
       <c r="R23" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S23" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="T23" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U23" t="n">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="V23" t="n">
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="W23" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="X23" t="n">
         <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.6</v>
+        <v>21.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>98.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE23" t="n">
         <v>5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>3</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
         <v>12</v>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,28 +4663,28 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP23" t="n">
         <v>16</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>9</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AT23" t="n">
         <v>20</v>
       </c>
       <c r="AU23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV23" t="n">
         <v>9</v>
@@ -4626,22 +4693,22 @@
         <v>28</v>
       </c>
       <c r="AX23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ23" t="n">
         <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BB23" t="n">
         <v>9</v>
       </c>
       <c r="BC23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>13.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF24" t="n">
         <v>3</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH24" t="n">
         <v>12</v>
@@ -4772,19 +4839,19 @@
         <v>3</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>19</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP24" t="n">
         <v>20</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21</v>
       </c>
       <c r="AQ24" t="n">
         <v>20</v>
@@ -4796,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>12</v>
@@ -4808,16 +4875,16 @@
         <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
         <v>7</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -4852,160 +4919,160 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>0.444</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="J25" t="n">
-        <v>80.7</v>
+        <v>81.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
         <v>20.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.322</v>
+        <v>0.316</v>
       </c>
       <c r="O25" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P25" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.786</v>
+        <v>0.797</v>
       </c>
       <c r="R25" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S25" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T25" t="n">
-        <v>41.8</v>
+        <v>42.1</v>
       </c>
       <c r="U25" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V25" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X25" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>93.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AD25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE25" t="n">
         <v>16</v>
       </c>
-      <c r="AE25" t="n">
-        <v>17</v>
-      </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>12</v>
       </c>
       <c r="AI25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
         <v>10</v>
       </c>
       <c r="AM25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
         <v>27</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW25" t="n">
         <v>18</v>
       </c>
-      <c r="AU25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>19</v>
-      </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
       </c>
       <c r="AZ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA25" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB25" t="n">
         <v>16</v>
       </c>
-      <c r="BB25" t="n">
-        <v>19</v>
-      </c>
       <c r="BC25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -5112,31 +5179,31 @@
         <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>3</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH26" t="n">
         <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>7</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM26" t="n">
         <v>16</v>
@@ -5145,25 +5212,25 @@
         <v>18</v>
       </c>
       <c r="AO26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>3</v>
@@ -5172,7 +5239,7 @@
         <v>16</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5312,7 +5379,7 @@
         <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK27" t="n">
         <v>29</v>
@@ -5327,7 +5394,7 @@
         <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
         <v>3</v>
@@ -5342,7 +5409,7 @@
         <v>25</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5354,7 +5421,7 @@
         <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY27" t="n">
         <v>13</v>
@@ -5366,7 +5433,7 @@
         <v>3</v>
       </c>
       <c r="BB27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -5476,19 +5543,19 @@
         <v>4.2</v>
       </c>
       <c r="AD28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE28" t="n">
         <v>5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5509,7 +5576,7 @@
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
@@ -5530,22 +5597,22 @@
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW28" t="n">
         <v>21</v>
       </c>
       <c r="AX28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -5658,28 +5725,28 @@
         <v>-5</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
         <v>12</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ29" t="n">
         <v>29</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5691,28 +5758,28 @@
         <v>17</v>
       </c>
       <c r="AO29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR29" t="n">
         <v>28</v>
       </c>
       <c r="AS29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
         <v>15</v>
       </c>
       <c r="AV29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW29" t="n">
         <v>25</v>
@@ -5724,7 +5791,7 @@
         <v>6</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5852,43 +5919,43 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
       </c>
       <c r="AM30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN30" t="n">
         <v>28</v>
       </c>
       <c r="AO30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
         <v>11</v>
       </c>
       <c r="AQ30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT30" t="n">
         <v>18</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>19</v>
@@ -5912,7 +5979,7 @@
         <v>8</v>
       </c>
       <c r="BB30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-10.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6055,7 +6122,7 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>24</v>
@@ -6064,7 +6131,7 @@
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS31" t="n">
         <v>24</v>
@@ -6088,13 +6155,13 @@
         <v>15</v>
       </c>
       <c r="AZ31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-12-2011-12</t>
+          <t>2012-01-12</t>
         </is>
       </c>
     </row>
